--- a/sibou_codes.xlsx
+++ b/sibou_codes.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LS210D2C4\Work\労災データベース\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCDE4F7-9359-49F1-A8D4-A072A6CB495B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="12220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="業種" sheetId="1" r:id="rId1"/>
     <sheet name="起因物" sheetId="2" r:id="rId2"/>
     <sheet name="事故の型" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="384">
   <si>
     <t>製造業</t>
   </si>
@@ -1146,23 +1141,76 @@
   </si>
   <si>
     <t>jiko_bunrui</t>
+  </si>
+  <si>
+    <t>電気・ガス・水道業</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他の電気・ガス・水道業</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>起因物(中分類)_コード</t>
+  </si>
+  <si>
+    <t>起因物(中分類)_分類名</t>
+  </si>
+  <si>
+    <t>起因物(小分類)_コード</t>
+  </si>
+  <si>
+    <t>起因物(小分類)_分類名</t>
+  </si>
+  <si>
+    <t>車両系木材伐出機械等</t>
+  </si>
+  <si>
+    <t>走行集材機械</t>
+  </si>
+  <si>
+    <t>伐木等機械</t>
+  </si>
+  <si>
+    <t>架線集材機械</t>
+  </si>
+  <si>
+    <t>車両系木材伐出機械等</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -1256,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1286,9 +1334,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1298,20 +1343,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1585,32 +1639,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12" style="9"/>
-    <col min="2" max="2" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="9"/>
-    <col min="4" max="4" width="31.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.4140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="9"/>
-    <col min="6" max="6" width="45.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="45.75" style="9" customWidth="1"/>
     <col min="7" max="16384" width="12" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>222</v>
       </c>
@@ -1630,7 +1684,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.5" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1650,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.5" thickBot="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1670,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18.5" thickBot="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1690,7 +1744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18.5" thickBot="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1710,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18.5" thickBot="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1730,7 +1784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18.5" thickBot="1">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1750,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18.5" thickBot="1">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1770,7 +1824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18.5" thickBot="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1790,7 +1844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18.5" thickBot="1">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1810,7 +1864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18.5" thickBot="1">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1830,7 +1884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1850,7 +1904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1870,7 +1924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18.5" thickBot="1">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1890,7 +1944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18.5" thickBot="1">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1910,7 +1964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18.5" thickBot="1">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1930,7 +1984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18.5" thickBot="1">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1950,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18.5" thickBot="1">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1970,7 +2024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18.5" thickBot="1">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1990,7 +2044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18.5" thickBot="1">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -2010,7 +2064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18.5" thickBot="1">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -2030,7 +2084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18.5" thickBot="1">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -2050,7 +2104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18.5" thickBot="1">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -2070,7 +2124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18.5" thickBot="1">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -2090,7 +2144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18.5" thickBot="1">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -2110,7 +2164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18.5" thickBot="1">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2130,7 +2184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18.5" thickBot="1">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -2150,7 +2204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18.5" thickBot="1">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2170,7 +2224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18.5" thickBot="1">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -2190,7 +2244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18.5" thickBot="1">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -2210,7 +2264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18.5" thickBot="1">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -2230,7 +2284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18.5" thickBot="1">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -2250,7 +2304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18.5" thickBot="1">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -2270,7 +2324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="18.5" thickBot="1">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -2290,7 +2344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="18.5" thickBot="1">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -2310,7 +2364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18.5" thickBot="1">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -2330,7 +2384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="18.5" thickBot="1">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -2350,7 +2404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="18.5" thickBot="1">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -2370,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="18.5" thickBot="1">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -2390,7 +2444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="18.5" thickBot="1">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -2410,7 +2464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="18.5" thickBot="1">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -2430,7 +2484,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="18.5" thickBot="1">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -2450,7 +2504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="18.5" thickBot="1">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -2470,7 +2524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="18.5" thickBot="1">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -2490,7 +2544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="18.5" thickBot="1">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -2510,7 +2564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="18.5" thickBot="1">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -2530,7 +2584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="18.5" thickBot="1">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -2550,7 +2604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18.5" thickBot="1">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -2570,7 +2624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="18.5" thickBot="1">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -2590,7 +2644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="18.5" thickBot="1">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -2610,7 +2664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="18.5" thickBot="1">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -2630,7 +2684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="18.5" thickBot="1">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -2650,7 +2704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="18.5" thickBot="1">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -2670,7 +2724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="18.5" thickBot="1">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -2690,7 +2744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="18.5" thickBot="1">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -2710,7 +2764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="18.5" thickBot="1">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -2730,7 +2784,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="18.5" thickBot="1">
       <c r="A57" s="3">
         <v>1</v>
       </c>
@@ -2750,7 +2804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="18.5" thickBot="1">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -2770,7 +2824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="18.5" thickBot="1">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -2790,7 +2844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="18.5" thickBot="1">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -2810,7 +2864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="18.5" thickBot="1">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -2830,7 +2884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="18.5" thickBot="1">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -2850,7 +2904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="18.5" thickBot="1">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -2870,7 +2924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="18.5" thickBot="1">
       <c r="A64" s="3">
         <v>1</v>
       </c>
@@ -2890,7 +2944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="18.5" thickBot="1">
       <c r="A65" s="3">
         <v>1</v>
       </c>
@@ -2910,7 +2964,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="18.5" thickBot="1">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -2930,7 +2984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="18.5" thickBot="1">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -2950,7 +3004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="18.5" thickBot="1">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -2970,7 +3024,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="18.5" thickBot="1">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -2990,7 +3044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="18.5" thickBot="1">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -3010,7 +3064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="18.5" thickBot="1">
       <c r="A71" s="3">
         <v>1</v>
       </c>
@@ -3030,7 +3084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="18.5" thickBot="1">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -3050,27 +3104,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>1</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4">
-        <v>117</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="6">
-        <v>11701</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A73" s="16">
+        <v>1</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="17">
+        <v>116</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="E73" s="19">
+        <v>11609</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.5" thickBot="1">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -3084,13 +3138,13 @@
         <v>88</v>
       </c>
       <c r="E74" s="6">
-        <v>11702</v>
+        <v>11701</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.5" thickBot="1">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -3104,13 +3158,13 @@
         <v>88</v>
       </c>
       <c r="E75" s="6">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.5" thickBot="1">
       <c r="A76" s="3">
         <v>1</v>
       </c>
@@ -3124,13 +3178,13 @@
         <v>88</v>
       </c>
       <c r="E76" s="6">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.5" thickBot="1">
       <c r="A77" s="3">
         <v>1</v>
       </c>
@@ -3144,33 +3198,33 @@
         <v>88</v>
       </c>
       <c r="E77" s="6">
+        <v>11704</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A78" s="3">
+        <v>1</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>117</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="6">
         <v>11709</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>2</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="4">
-        <v>201</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="6">
-        <v>20101</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="18.5" thickBot="1">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -3184,13 +3238,13 @@
         <v>94</v>
       </c>
       <c r="E79" s="6">
-        <v>20109</v>
+        <v>20101</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18.5" thickBot="1">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -3198,19 +3252,19 @@
         <v>93</v>
       </c>
       <c r="C80" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E80" s="6">
-        <v>20201</v>
+        <v>20109</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.5" thickBot="1">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -3224,13 +3278,13 @@
         <v>97</v>
       </c>
       <c r="E81" s="6">
-        <v>20202</v>
+        <v>20201</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.5" thickBot="1">
       <c r="A82" s="3">
         <v>2</v>
       </c>
@@ -3244,13 +3298,13 @@
         <v>97</v>
       </c>
       <c r="E82" s="6">
-        <v>20209</v>
+        <v>20202</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.5" thickBot="1">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -3258,19 +3312,19 @@
         <v>93</v>
       </c>
       <c r="C83" s="4">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E83" s="6">
-        <v>20301</v>
+        <v>20209</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.5" thickBot="1">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -3284,13 +3338,13 @@
         <v>101</v>
       </c>
       <c r="E84" s="6">
-        <v>20302</v>
+        <v>20301</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.5" thickBot="1">
       <c r="A85" s="3">
         <v>2</v>
       </c>
@@ -3304,33 +3358,33 @@
         <v>101</v>
       </c>
       <c r="E85" s="6">
+        <v>20302</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A86" s="3">
+        <v>2</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="4">
+        <v>203</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="6">
         <v>20309</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>3</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" s="4">
-        <v>301</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E86" s="6">
-        <v>30101</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="18.5" thickBot="1">
       <c r="A87" s="3">
         <v>3</v>
       </c>
@@ -3344,13 +3398,13 @@
         <v>105</v>
       </c>
       <c r="E87" s="6">
-        <v>30102</v>
+        <v>30101</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.5" thickBot="1">
       <c r="A88" s="3">
         <v>3</v>
       </c>
@@ -3364,13 +3418,13 @@
         <v>105</v>
       </c>
       <c r="E88" s="6">
-        <v>30103</v>
+        <v>30102</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18.5" thickBot="1">
       <c r="A89" s="3">
         <v>3</v>
       </c>
@@ -3384,13 +3438,13 @@
         <v>105</v>
       </c>
       <c r="E89" s="6">
-        <v>30104</v>
+        <v>30103</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18.5" thickBot="1">
       <c r="A90" s="3">
         <v>3</v>
       </c>
@@ -3404,13 +3458,13 @@
         <v>105</v>
       </c>
       <c r="E90" s="6">
-        <v>30105</v>
+        <v>30104</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.5" thickBot="1">
       <c r="A91" s="3">
         <v>3</v>
       </c>
@@ -3424,13 +3478,13 @@
         <v>105</v>
       </c>
       <c r="E91" s="6">
-        <v>30106</v>
+        <v>30105</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18.5" thickBot="1">
       <c r="A92" s="3">
         <v>3</v>
       </c>
@@ -3444,13 +3498,13 @@
         <v>105</v>
       </c>
       <c r="E92" s="6">
-        <v>30107</v>
+        <v>30106</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.5" thickBot="1">
       <c r="A93" s="3">
         <v>3</v>
       </c>
@@ -3464,13 +3518,13 @@
         <v>105</v>
       </c>
       <c r="E93" s="6">
-        <v>30108</v>
+        <v>30107</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18.5" thickBot="1">
       <c r="A94" s="3">
         <v>3</v>
       </c>
@@ -3484,13 +3538,13 @@
         <v>105</v>
       </c>
       <c r="E94" s="6">
-        <v>30109</v>
+        <v>30108</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18.5" thickBot="1">
       <c r="A95" s="3">
         <v>3</v>
       </c>
@@ -3504,13 +3558,13 @@
         <v>105</v>
       </c>
       <c r="E95" s="6">
-        <v>30110</v>
+        <v>30109</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18.5" thickBot="1">
       <c r="A96" s="3">
         <v>3</v>
       </c>
@@ -3524,13 +3578,13 @@
         <v>105</v>
       </c>
       <c r="E96" s="6">
-        <v>30111</v>
+        <v>30110</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18.5" thickBot="1">
       <c r="A97" s="3">
         <v>3</v>
       </c>
@@ -3544,13 +3598,13 @@
         <v>105</v>
       </c>
       <c r="E97" s="6">
-        <v>30199</v>
+        <v>30111</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.5" thickBot="1">
       <c r="A98" s="3">
         <v>3</v>
       </c>
@@ -3558,19 +3612,19 @@
         <v>104</v>
       </c>
       <c r="C98" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E98" s="6">
-        <v>30201</v>
+        <v>30199</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18.5" thickBot="1">
       <c r="A99" s="3">
         <v>3</v>
       </c>
@@ -3584,13 +3638,13 @@
         <v>118</v>
       </c>
       <c r="E99" s="6">
-        <v>30202</v>
+        <v>30201</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18.5" thickBot="1">
       <c r="A100" s="3">
         <v>3</v>
       </c>
@@ -3604,13 +3658,13 @@
         <v>118</v>
       </c>
       <c r="E100" s="6">
-        <v>30203</v>
+        <v>30202</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18.5" thickBot="1">
       <c r="A101" s="3">
         <v>3</v>
       </c>
@@ -3624,13 +3678,13 @@
         <v>118</v>
       </c>
       <c r="E101" s="6">
-        <v>30209</v>
+        <v>30203</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="18.5" thickBot="1">
       <c r="A102" s="3">
         <v>3</v>
       </c>
@@ -3638,19 +3692,19 @@
         <v>104</v>
       </c>
       <c r="C102" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E102" s="6">
-        <v>30301</v>
+        <v>30209</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18.5" thickBot="1">
       <c r="A103" s="3">
         <v>3</v>
       </c>
@@ -3664,13 +3718,13 @@
         <v>123</v>
       </c>
       <c r="E103" s="6">
-        <v>30302</v>
+        <v>30301</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18.5" thickBot="1">
       <c r="A104" s="3">
         <v>3</v>
       </c>
@@ -3684,33 +3738,33 @@
         <v>123</v>
       </c>
       <c r="E104" s="6">
+        <v>30302</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A105" s="3">
+        <v>3</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="4">
+        <v>303</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="6">
         <v>30309</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>4</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C105" s="4">
-        <v>401</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" s="6">
-        <v>40101</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="18.5" thickBot="1">
       <c r="A106" s="3">
         <v>4</v>
       </c>
@@ -3724,13 +3778,13 @@
         <v>127</v>
       </c>
       <c r="E106" s="6">
-        <v>40102</v>
+        <v>40101</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="18.5" thickBot="1">
       <c r="A107" s="3">
         <v>4</v>
       </c>
@@ -3744,13 +3798,13 @@
         <v>127</v>
       </c>
       <c r="E107" s="6">
-        <v>40103</v>
+        <v>40102</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="18.5" thickBot="1">
       <c r="A108" s="3">
         <v>4</v>
       </c>
@@ -3758,19 +3812,19 @@
         <v>126</v>
       </c>
       <c r="C108" s="4">
-        <v>402</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>131</v>
+        <v>401</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="E108" s="6">
-        <v>40201</v>
+        <v>40103</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18.5" thickBot="1">
       <c r="A109" s="3">
         <v>4</v>
       </c>
@@ -3784,13 +3838,13 @@
         <v>131</v>
       </c>
       <c r="E109" s="6">
-        <v>40202</v>
+        <v>40201</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="18.5" thickBot="1">
       <c r="A110" s="3">
         <v>4</v>
       </c>
@@ -3804,13 +3858,13 @@
         <v>131</v>
       </c>
       <c r="E110" s="6">
-        <v>40209</v>
+        <v>40202</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18.5" thickBot="1">
       <c r="A111" s="3">
         <v>4</v>
       </c>
@@ -3818,19 +3872,19 @@
         <v>126</v>
       </c>
       <c r="C111" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E111" s="6">
-        <v>40301</v>
+        <v>40209</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18.5" thickBot="1">
       <c r="A112" s="3">
         <v>4</v>
       </c>
@@ -3844,13 +3898,13 @@
         <v>135</v>
       </c>
       <c r="E112" s="6">
-        <v>40302</v>
+        <v>40301</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="18.5" thickBot="1">
       <c r="A113" s="3">
         <v>4</v>
       </c>
@@ -3864,13 +3918,13 @@
         <v>135</v>
       </c>
       <c r="E113" s="6">
-        <v>40303</v>
+        <v>40302</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="18.5" thickBot="1">
       <c r="A114" s="3">
         <v>4</v>
       </c>
@@ -3884,73 +3938,73 @@
         <v>135</v>
       </c>
       <c r="E114" s="6">
-        <v>40309</v>
+        <v>40303</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="18.5" thickBot="1">
       <c r="A115" s="3">
         <v>4</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="4">
+        <v>403</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="6">
+        <v>40309</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A116" s="3">
+        <v>4</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="6">
         <v>404</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E116" s="6">
         <v>40409</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F116" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
-        <v>5</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="6">
-        <v>501</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E116" s="6">
-        <v>50101</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="18.5" thickBot="1">
       <c r="A117" s="3">
         <v>5</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C117" s="4">
-        <v>502</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>143</v>
+      <c r="C117" s="6">
+        <v>501</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E117" s="6">
-        <v>50201</v>
+        <v>50101</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18.5" thickBot="1">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -3964,13 +4018,13 @@
         <v>143</v>
       </c>
       <c r="E118" s="6">
-        <v>50202</v>
+        <v>50201</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18.5" thickBot="1">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -3984,53 +4038,53 @@
         <v>143</v>
       </c>
       <c r="E119" s="6">
+        <v>50202</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A120" s="3">
+        <v>5</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="4">
+        <v>502</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="6">
         <v>50209</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F120" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
-        <v>6</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C120" s="6">
-        <v>601</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E120" s="6">
-        <v>60101</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="18.5" thickBot="1">
       <c r="A121" s="3">
         <v>6</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="4">
-        <v>602</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>149</v>
+      <c r="C121" s="6">
+        <v>601</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="E121" s="6">
-        <v>60201</v>
+        <v>60101</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="18.5" thickBot="1">
       <c r="A122" s="3">
         <v>6</v>
       </c>
@@ -4044,53 +4098,53 @@
         <v>149</v>
       </c>
       <c r="E122" s="6">
+        <v>60201</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A123" s="3">
+        <v>6</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="4">
+        <v>602</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" s="6">
         <v>60209</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F123" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>7</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C123" s="6">
-        <v>701</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E123" s="6">
-        <v>70101</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="18.5" thickBot="1">
       <c r="A124" s="3">
         <v>7</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C124" s="4">
-        <v>702</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>154</v>
+      <c r="C124" s="6">
+        <v>701</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="E124" s="6">
-        <v>70201</v>
+        <v>70101</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="18.5" thickBot="1">
       <c r="A125" s="3">
         <v>7</v>
       </c>
@@ -4104,33 +4158,33 @@
         <v>154</v>
       </c>
       <c r="E125" s="6">
+        <v>70201</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A126" s="3">
+        <v>7</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" s="4">
+        <v>702</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E126" s="6">
         <v>70209</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
-        <v>8</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="4">
-        <v>801</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E126" s="6">
-        <v>80101</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="18.5" thickBot="1">
       <c r="A127" s="3">
         <v>8</v>
       </c>
@@ -4144,13 +4198,13 @@
         <v>158</v>
       </c>
       <c r="E127" s="6">
-        <v>80102</v>
+        <v>80101</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="18.5" thickBot="1">
       <c r="A128" s="3">
         <v>8</v>
       </c>
@@ -4164,13 +4218,13 @@
         <v>158</v>
       </c>
       <c r="E128" s="6">
-        <v>80103</v>
+        <v>80102</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="18.5" thickBot="1">
       <c r="A129" s="3">
         <v>8</v>
       </c>
@@ -4184,13 +4238,13 @@
         <v>158</v>
       </c>
       <c r="E129" s="6">
-        <v>80109</v>
+        <v>80103</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="18.5" thickBot="1">
       <c r="A130" s="3">
         <v>8</v>
       </c>
@@ -4198,19 +4252,19 @@
         <v>157</v>
       </c>
       <c r="C130" s="4">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E130" s="6">
-        <v>80201</v>
+        <v>80109</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="18.5" thickBot="1">
       <c r="A131" s="3">
         <v>8</v>
       </c>
@@ -4224,13 +4278,13 @@
         <v>163</v>
       </c>
       <c r="E131" s="6">
-        <v>80202</v>
+        <v>80201</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="18.5" thickBot="1">
       <c r="A132" s="3">
         <v>8</v>
       </c>
@@ -4244,13 +4298,13 @@
         <v>163</v>
       </c>
       <c r="E132" s="6">
-        <v>80203</v>
+        <v>80202</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="18.5" thickBot="1">
       <c r="A133" s="3">
         <v>8</v>
       </c>
@@ -4264,13 +4318,13 @@
         <v>163</v>
       </c>
       <c r="E133" s="6">
-        <v>80204</v>
+        <v>80203</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="18.5" thickBot="1">
       <c r="A134" s="3">
         <v>8</v>
       </c>
@@ -4284,13 +4338,13 @@
         <v>163</v>
       </c>
       <c r="E134" s="6">
-        <v>80205</v>
+        <v>80204</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="18.5" thickBot="1">
       <c r="A135" s="3">
         <v>8</v>
       </c>
@@ -4304,13 +4358,13 @@
         <v>163</v>
       </c>
       <c r="E135" s="6">
-        <v>80209</v>
+        <v>80205</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="18.5" thickBot="1">
       <c r="A136" s="3">
         <v>8</v>
       </c>
@@ -4318,19 +4372,19 @@
         <v>157</v>
       </c>
       <c r="C136" s="4">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E136" s="6">
-        <v>80301</v>
+        <v>80209</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18.5" thickBot="1">
       <c r="A137" s="3">
         <v>8</v>
       </c>
@@ -4344,13 +4398,13 @@
         <v>170</v>
       </c>
       <c r="E137" s="6">
-        <v>80302</v>
+        <v>80301</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="18.5" thickBot="1">
       <c r="A138" s="3">
         <v>8</v>
       </c>
@@ -4358,19 +4412,19 @@
         <v>157</v>
       </c>
       <c r="C138" s="4">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E138" s="6">
-        <v>80401</v>
+        <v>80302</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="18.5" thickBot="1">
       <c r="A139" s="3">
         <v>8</v>
       </c>
@@ -4384,33 +4438,33 @@
         <v>173</v>
       </c>
       <c r="E139" s="6">
+        <v>80401</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A140" s="3">
+        <v>8</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="4">
+        <v>804</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E140" s="6">
         <v>80409</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F140" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
-        <v>9</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C140" s="4">
-        <v>901</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E140" s="6">
-        <v>90101</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="18.5" thickBot="1">
       <c r="A141" s="3">
         <v>9</v>
       </c>
@@ -4424,13 +4478,13 @@
         <v>176</v>
       </c>
       <c r="E141" s="6">
-        <v>90102</v>
+        <v>90101</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="18.5" thickBot="1">
       <c r="A142" s="3">
         <v>9</v>
       </c>
@@ -4444,13 +4498,13 @@
         <v>176</v>
       </c>
       <c r="E142" s="6">
-        <v>90103</v>
+        <v>90102</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="18.5" thickBot="1">
       <c r="A143" s="3">
         <v>9</v>
       </c>
@@ -4464,13 +4518,13 @@
         <v>176</v>
       </c>
       <c r="E143" s="6">
-        <v>90109</v>
+        <v>90103</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="18.5" thickBot="1">
       <c r="A144" s="3">
         <v>9</v>
       </c>
@@ -4478,19 +4532,19 @@
         <v>175</v>
       </c>
       <c r="C144" s="4">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E144" s="6">
-        <v>90201</v>
+        <v>90109</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="18.5" thickBot="1">
       <c r="A145" s="3">
         <v>9</v>
       </c>
@@ -4504,33 +4558,33 @@
         <v>181</v>
       </c>
       <c r="E145" s="6">
+        <v>90201</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A146" s="3">
+        <v>9</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="4">
+        <v>902</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E146" s="6">
         <v>90209</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="F146" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
-        <v>10</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C146" s="4">
-        <v>1001</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E146" s="6">
-        <v>100101</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="18.5" thickBot="1">
       <c r="A147" s="3">
         <v>10</v>
       </c>
@@ -4544,13 +4598,13 @@
         <v>184</v>
       </c>
       <c r="E147" s="6">
-        <v>100102</v>
+        <v>100101</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="18.5" thickBot="1">
       <c r="A148" s="3">
         <v>10</v>
       </c>
@@ -4564,53 +4618,53 @@
         <v>184</v>
       </c>
       <c r="E148" s="6">
+        <v>100102</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A149" s="3">
+        <v>10</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E149" s="6">
         <v>100109</v>
       </c>
-      <c r="F148" s="6" t="s">
+      <c r="F149" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
+    <row r="150" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A150" s="7">
         <v>11</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B150" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C150" s="6">
         <v>1101</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D150" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E150" s="6">
         <v>110101</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="F150" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>12</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C150" s="4">
-        <v>1201</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E150" s="6">
-        <v>120101</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="18.5" thickBot="1">
       <c r="A151" s="3">
         <v>12</v>
       </c>
@@ -4624,13 +4678,13 @@
         <v>190</v>
       </c>
       <c r="E151" s="6">
-        <v>120102</v>
+        <v>120101</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18.5" thickBot="1">
       <c r="A152" s="3">
         <v>12</v>
       </c>
@@ -4644,33 +4698,33 @@
         <v>190</v>
       </c>
       <c r="E152" s="6">
+        <v>120102</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A153" s="3">
+        <v>12</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1201</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E153" s="6">
         <v>120109</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F153" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
-        <v>13</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C153" s="4">
-        <v>1301</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E153" s="6">
-        <v>130101</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="18.5" thickBot="1">
       <c r="A154" s="3">
         <v>13</v>
       </c>
@@ -4684,13 +4738,13 @@
         <v>195</v>
       </c>
       <c r="E154" s="6">
-        <v>130102</v>
+        <v>130101</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18.5" thickBot="1">
       <c r="A155" s="3">
         <v>13</v>
       </c>
@@ -4704,53 +4758,53 @@
         <v>195</v>
       </c>
       <c r="E155" s="6">
-        <v>130109</v>
+        <v>130102</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="18.5" thickBot="1">
       <c r="A156" s="3">
         <v>13</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C156" s="6">
-        <v>1302</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>199</v>
+      <c r="C156" s="4">
+        <v>1301</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="E156" s="6">
-        <v>130201</v>
+        <v>130109</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="18.5" thickBot="1">
       <c r="A157" s="3">
         <v>13</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C157" s="4">
-        <v>1303</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>200</v>
+      <c r="C157" s="6">
+        <v>1302</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="E157" s="6">
-        <v>130301</v>
+        <v>130201</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="18.5" thickBot="1">
       <c r="A158" s="3">
         <v>13</v>
       </c>
@@ -4764,53 +4818,53 @@
         <v>200</v>
       </c>
       <c r="E158" s="6">
+        <v>130301</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A159" s="3">
+        <v>13</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1303</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E159" s="6">
         <v>130309</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="F159" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
-        <v>14</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C159" s="6">
-        <v>1401</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E159" s="6">
-        <v>140101</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="18.5" thickBot="1">
       <c r="A160" s="3">
         <v>14</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C160" s="4">
-        <v>1402</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>204</v>
+      <c r="C160" s="6">
+        <v>1401</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="E160" s="6">
-        <v>140201</v>
+        <v>140101</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="18.5" thickBot="1">
       <c r="A161" s="3">
         <v>14</v>
       </c>
@@ -4824,13 +4878,13 @@
         <v>204</v>
       </c>
       <c r="E161" s="6">
-        <v>140209</v>
+        <v>140201</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="18.5" thickBot="1">
       <c r="A162" s="3">
         <v>14</v>
       </c>
@@ -4838,19 +4892,19 @@
         <v>202</v>
       </c>
       <c r="C162" s="4">
-        <v>1403</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>207</v>
+        <v>1402</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E162" s="6">
-        <v>140301</v>
+        <v>140209</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="18.5" thickBot="1">
       <c r="A163" s="3">
         <v>14</v>
       </c>
@@ -4864,13 +4918,13 @@
         <v>207</v>
       </c>
       <c r="E163" s="6">
-        <v>140302</v>
+        <v>140301</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="18.5" thickBot="1">
       <c r="A164" s="3">
         <v>14</v>
       </c>
@@ -4884,33 +4938,33 @@
         <v>207</v>
       </c>
       <c r="E164" s="6">
+        <v>140302</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A165" s="3">
+        <v>14</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" s="4">
+        <v>1403</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E165" s="6">
         <v>140309</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="F165" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
-        <v>15</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C165" s="4">
-        <v>1501</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E165" s="6">
-        <v>150101</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="18.5" thickBot="1">
       <c r="A166" s="3">
         <v>15</v>
       </c>
@@ -4924,13 +4978,13 @@
         <v>210</v>
       </c>
       <c r="E166" s="6">
-        <v>150102</v>
+        <v>150101</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="18.5" thickBot="1">
       <c r="A167" s="3">
         <v>15</v>
       </c>
@@ -4944,13 +4998,13 @@
         <v>210</v>
       </c>
       <c r="E167" s="6">
-        <v>150103</v>
+        <v>150102</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="18.5" thickBot="1">
       <c r="A168" s="3">
         <v>15</v>
       </c>
@@ -4964,13 +5018,13 @@
         <v>210</v>
       </c>
       <c r="E168" s="6">
-        <v>150104</v>
+        <v>150103</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="18.5" thickBot="1">
       <c r="A169" s="3">
         <v>15</v>
       </c>
@@ -4984,13 +5038,13 @@
         <v>210</v>
       </c>
       <c r="E169" s="6">
-        <v>150105</v>
+        <v>150104</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="18.5" thickBot="1">
       <c r="A170" s="3">
         <v>15</v>
       </c>
@@ -5004,73 +5058,73 @@
         <v>210</v>
       </c>
       <c r="E170" s="6">
+        <v>150105</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A171" s="3">
+        <v>15</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1501</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E171" s="6">
         <v>150109</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="F171" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="7">
+    <row r="172" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A172" s="7">
         <v>16</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C172" s="6">
         <v>1601</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D172" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E172" s="6">
         <v>160101</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="F172" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
-        <v>17</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C172" s="6">
-        <v>1701</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E172" s="6">
-        <v>170101</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="18.5" thickBot="1">
       <c r="A173" s="3">
         <v>17</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C173" s="4">
-        <v>1702</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>218</v>
+      <c r="C173" s="6">
+        <v>1701</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="E173" s="6">
-        <v>170201</v>
+        <v>170101</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="18.5" thickBot="1">
       <c r="A174" s="3">
         <v>17</v>
       </c>
@@ -5084,13 +5138,13 @@
         <v>218</v>
       </c>
       <c r="E174" s="6">
-        <v>170202</v>
+        <v>170201</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="18.5" thickBot="1">
       <c r="A175" s="3">
         <v>17</v>
       </c>
@@ -5104,2096 +5158,2179 @@
         <v>218</v>
       </c>
       <c r="E175" s="6">
+        <v>170202</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A176" s="3">
+        <v>17</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C176" s="4">
+        <v>1702</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E176" s="6">
         <v>170209</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F176" s="6" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9D0D4-0226-4A2D-A758-94A6DDC80414}">
-  <dimension ref="A1:F102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" style="20" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="34" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="42.4140625" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A1" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>111</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>12</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>121</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>131</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>13</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>132</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>13</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>133</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>134</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>13</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>135</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>13</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>136</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>13</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>139</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>141</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>14</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>142</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>14</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>143</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>14</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>144</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>14</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>145</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>14</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>146</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>14</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>149</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>1</v>
-      </c>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>15</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>151</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>15</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>152</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>1</v>
-      </c>
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A20" s="11">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>15</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>153</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>1</v>
-      </c>
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>15</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>154</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>1</v>
-      </c>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>15</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>155</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>1</v>
-      </c>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>15</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>156</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>1</v>
-      </c>
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A24" s="11">
+        <v>1</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>15</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>159</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>16</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>161</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="s">
+    <row r="26" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A26" s="11">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>16</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>162</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>1</v>
-      </c>
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A27" s="11">
+        <v>1</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>16</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>163</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>1</v>
-      </c>
-      <c r="B28" s="13" t="s">
+    <row r="28" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A28" s="11">
+        <v>1</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>16</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>164</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>1</v>
-      </c>
-      <c r="B29" s="13" t="s">
+    <row r="29" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A29" s="11">
+        <v>1</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>16</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>165</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>1</v>
-      </c>
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A30" s="11">
+        <v>1</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>16</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>166</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>1</v>
-      </c>
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A31" s="11">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>16</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>167</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>1</v>
-      </c>
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A32" s="11">
+        <v>1</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>16</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>169</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+    <row r="33" spans="1:6">
+      <c r="A33" s="11">
+        <v>1</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="20">
+        <v>17</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E33" s="20">
+        <v>171</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11">
+        <v>1</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="20">
+        <v>17</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="20">
+        <v>172</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A35" s="11">
+        <v>1</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="20">
+        <v>17</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E35" s="20">
+        <v>173</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A36" s="11">
         <v>2</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B36" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C36" s="12">
         <v>21</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E36" s="13">
         <v>211</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+    <row r="37" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A37" s="11">
         <v>2</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B37" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C37" s="12">
         <v>21</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E37" s="13">
         <v>212</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+    <row r="38" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A38" s="11">
         <v>2</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B38" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C38" s="12">
         <v>21</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E38" s="13">
         <v>213</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+    <row r="39" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A39" s="11">
         <v>2</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B39" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C39" s="12">
         <v>21</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E39" s="13">
         <v>214</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+    <row r="40" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A40" s="11">
         <v>2</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B40" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C40" s="12">
         <v>21</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E40" s="13">
         <v>215</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+    <row r="41" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A41" s="11">
         <v>2</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B41" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C41" s="12">
         <v>21</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E41" s="13">
         <v>216</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+    <row r="42" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A42" s="11">
         <v>2</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B42" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C42" s="12">
         <v>21</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E42" s="13">
         <v>217</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+    <row r="43" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A43" s="11">
         <v>2</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B43" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C43" s="12">
         <v>21</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E43" s="13">
         <v>219</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+    <row r="44" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A44" s="11">
         <v>2</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B44" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C44" s="12">
         <v>22</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E44" s="13">
         <v>221</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+    <row r="45" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A45" s="11">
         <v>2</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B45" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C45" s="12">
         <v>22</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E45" s="13">
         <v>222</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+    <row r="46" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A46" s="11">
         <v>2</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B46" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C46" s="12">
         <v>22</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E46" s="13">
         <v>223</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+    <row r="47" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A47" s="11">
         <v>2</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B47" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C47" s="12">
         <v>22</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E47" s="13">
         <v>224</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+    <row r="48" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A48" s="11">
         <v>2</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B48" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C48" s="12">
         <v>22</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E48" s="13">
         <v>225</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+    <row r="49" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A49" s="11">
         <v>2</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B49" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C49" s="12">
         <v>22</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E49" s="13">
         <v>226</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+    <row r="50" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A50" s="11">
         <v>2</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B50" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C50" s="12">
         <v>22</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E50" s="13">
         <v>227</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+    <row r="51" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A51" s="11">
         <v>2</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B51" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C51" s="12">
         <v>22</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E51" s="13">
         <v>229</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F51" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+    <row r="52" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A52" s="11">
         <v>2</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B52" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C52" s="12">
         <v>23</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E52" s="13">
         <v>231</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F52" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+    <row r="53" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A53" s="11">
         <v>2</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B53" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C53" s="12">
         <v>23</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E53" s="13">
         <v>232</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F53" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+    <row r="54" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A54" s="11">
         <v>2</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B54" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C54" s="12">
         <v>23</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E54" s="13">
         <v>239</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+    <row r="55" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A55" s="11">
         <v>3</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B55" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C55" s="12">
         <v>31</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E55" s="13">
         <v>311</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F55" s="13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+    <row r="56" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A56" s="11">
         <v>3</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B56" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C56" s="12">
         <v>31</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E56" s="13">
         <v>312</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F56" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+    <row r="57" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A57" s="11">
         <v>3</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B57" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C57" s="12">
         <v>31</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E57" s="13">
         <v>319</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F57" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+    <row r="58" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A58" s="11">
         <v>3</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B58" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C58" s="13">
         <v>32</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D58" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E58" s="13">
         <v>321</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F58" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
+    <row r="59" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A59" s="11">
         <v>3</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B59" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C59" s="12">
         <v>33</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E59" s="13">
         <v>331</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F59" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
+    <row r="60" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A60" s="11">
         <v>3</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B60" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C60" s="12">
         <v>33</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E60" s="13">
         <v>332</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F60" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+    <row r="61" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A61" s="11">
         <v>3</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B61" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C61" s="12">
         <v>33</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E61" s="13">
         <v>339</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F61" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+    <row r="62" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A62" s="11">
         <v>3</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B62" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C62" s="12">
         <v>34</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E62" s="13">
         <v>341</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F62" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
+    <row r="63" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A63" s="11">
         <v>3</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B63" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C63" s="12">
         <v>34</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E63" s="13">
         <v>342</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F63" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
+    <row r="64" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A64" s="11">
         <v>3</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B64" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C64" s="12">
         <v>34</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E64" s="13">
         <v>349</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F64" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
+    <row r="65" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A65" s="11">
         <v>3</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B65" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C65" s="12">
         <v>35</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E65" s="13">
         <v>351</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F65" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
+    <row r="66" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A66" s="11">
         <v>3</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B66" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C66" s="12">
         <v>35</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D66" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E66" s="13">
         <v>352</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F66" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12">
+    <row r="67" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A67" s="11">
         <v>3</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B67" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C67" s="12">
         <v>35</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D67" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E67" s="13">
         <v>359</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F67" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12">
+    <row r="68" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A68" s="11">
         <v>3</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B68" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C68" s="12">
         <v>36</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D68" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E68" s="13">
         <v>361</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F68" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
+    <row r="69" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A69" s="11">
         <v>3</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B69" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C69" s="12">
         <v>36</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D69" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E69" s="13">
         <v>362</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F69" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12">
+    <row r="70" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A70" s="11">
         <v>3</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B70" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C70" s="12">
         <v>36</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D70" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E70" s="13">
         <v>363</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F70" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12">
+    <row r="71" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A71" s="11">
         <v>3</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B71" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C71" s="12">
         <v>36</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D71" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E71" s="13">
         <v>364</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F71" s="13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
+    <row r="72" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A72" s="11">
         <v>3</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B72" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C72" s="12">
         <v>37</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D72" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E72" s="13">
         <v>371</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F72" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
+    <row r="73" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A73" s="11">
         <v>3</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B73" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C73" s="12">
         <v>37</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E73" s="13">
         <v>372</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F73" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
+    <row r="74" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A74" s="11">
         <v>3</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B74" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C74" s="12">
         <v>37</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E74" s="13">
         <v>379</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F74" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12">
+    <row r="75" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A75" s="11">
         <v>3</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B75" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C75" s="13">
         <v>39</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D75" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E75" s="13">
         <v>391</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F75" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12">
+    <row r="76" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A76" s="11">
         <v>4</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B76" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C76" s="12">
         <v>41</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D76" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E76" s="13">
         <v>411</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F76" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
+    <row r="77" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A77" s="11">
         <v>4</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B77" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C77" s="12">
         <v>41</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E77" s="13">
         <v>412</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F77" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
+    <row r="78" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A78" s="11">
         <v>4</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B78" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C78" s="12">
         <v>41</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D78" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E78" s="13">
         <v>413</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F78" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
+    <row r="79" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A79" s="11">
         <v>4</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B79" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C79" s="12">
         <v>41</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D79" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E79" s="13">
         <v>414</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F79" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="12">
+    <row r="80" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A80" s="11">
         <v>4</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B80" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C80" s="12">
         <v>41</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D80" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E80" s="13">
         <v>415</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F80" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
+    <row r="81" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A81" s="11">
         <v>4</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B81" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C81" s="12">
         <v>41</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D81" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E81" s="13">
         <v>416</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F81" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12">
+    <row r="82" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A82" s="11">
         <v>4</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B82" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C82" s="12">
         <v>41</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D82" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E82" s="13">
         <v>417</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F82" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12">
+    <row r="83" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A83" s="11">
         <v>4</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B83" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C83" s="12">
         <v>41</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D83" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E83" s="13">
         <v>418</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F83" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12">
+    <row r="84" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A84" s="11">
         <v>4</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B84" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C84" s="12">
         <v>41</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D84" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E84" s="13">
         <v>419</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F84" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12">
+    <row r="85" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A85" s="11">
         <v>5</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B85" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C85" s="12">
         <v>51</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D85" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E85" s="13">
         <v>511</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F85" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="12">
+    <row r="86" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A86" s="11">
         <v>5</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B86" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C86" s="12">
         <v>51</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D86" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E86" s="13">
         <v>512</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F86" s="13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12">
+    <row r="87" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A87" s="11">
         <v>5</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B87" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C87" s="12">
         <v>51</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D87" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E87" s="13">
         <v>513</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F87" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12">
+    <row r="88" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A88" s="11">
         <v>5</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B88" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C88" s="12">
         <v>51</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D88" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E88" s="13">
         <v>514</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F88" s="13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12">
+    <row r="89" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A89" s="11">
         <v>5</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B89" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C89" s="12">
         <v>51</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D89" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E89" s="13">
         <v>515</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F89" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="12">
+    <row r="90" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A90" s="11">
         <v>5</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B90" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C90" s="12">
         <v>51</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D90" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E90" s="13">
         <v>519</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F90" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12">
+    <row r="91" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A91" s="11">
         <v>5</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B91" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C91" s="12">
         <v>52</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D91" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E91" s="13">
         <v>521</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F91" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12">
+    <row r="92" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A92" s="11">
         <v>5</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B92" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C92" s="12">
         <v>52</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D92" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E92" s="13">
         <v>522</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F92" s="13" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12">
+    <row r="93" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A93" s="11">
         <v>5</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B93" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C93" s="12">
         <v>52</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D93" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E93" s="13">
         <v>523</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F93" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="12">
+    <row r="94" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A94" s="11">
         <v>5</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B94" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C94" s="12">
         <v>52</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D94" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E94" s="13">
         <v>529</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F94" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12">
+    <row r="95" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A95" s="11">
         <v>6</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C95" s="12">
         <v>61</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D95" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E95" s="13">
         <v>611</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F95" s="13" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="12">
+    <row r="96" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A96" s="11">
         <v>6</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B96" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C96" s="12">
         <v>61</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D96" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E96" s="13">
         <v>612</v>
       </c>
-      <c r="F93" s="14" t="s">
+      <c r="F96" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12">
+    <row r="97" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A97" s="11">
         <v>7</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B97" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C97" s="12">
         <v>71</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D97" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E97" s="13">
         <v>711</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F97" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
+    <row r="98" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A98" s="11">
         <v>7</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C98" s="12">
         <v>71</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D98" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E98" s="13">
         <v>712</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F98" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12">
+    <row r="99" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A99" s="11">
         <v>7</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B99" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C99" s="12">
         <v>71</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D99" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E99" s="13">
         <v>713</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F99" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="12">
+    <row r="100" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A100" s="11">
         <v>7</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B100" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C100" s="12">
         <v>71</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D100" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E100" s="13">
         <v>714</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F100" s="13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12">
+    <row r="101" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A101" s="11">
         <v>7</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C101" s="12">
         <v>71</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D101" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E101" s="13">
         <v>715</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F101" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="12">
+    <row r="102" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A102" s="11">
         <v>7</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C102" s="12">
         <v>71</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D102" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E102" s="13">
         <v>719</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F102" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12">
+    <row r="103" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A103" s="11">
         <v>9</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C103" s="13">
         <v>91</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D103" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E103" s="13">
         <v>911</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F103" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12">
+    <row r="104" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A104" s="11">
         <v>9</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C104" s="13">
         <v>92</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D104" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E104" s="13">
         <v>921</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F104" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="12">
+    <row r="105" spans="1:6" ht="18.5" thickBot="1">
+      <c r="A105" s="11">
         <v>9</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C105" s="13">
         <v>99</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D105" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E105" s="13">
         <v>999</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="F105" s="13" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1230F16B-EC67-4490-948D-58B8DA078455}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>371</v>
       </c>
@@ -7201,168 +7338,168 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+    <row r="2" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+    <row r="3" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+    <row r="4" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+    <row r="5" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+    <row r="6" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+    <row r="7" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+    <row r="8" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+    <row r="9" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+    <row r="11" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+    <row r="12" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+    <row r="13" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+    <row r="14" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+    <row r="15" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+    <row r="16" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+    <row r="17" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+    <row r="18" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+    <row r="19" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+    <row r="20" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+    <row r="21" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A21" s="14">
         <v>90</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+    <row r="22" spans="1:2" ht="18.5" thickBot="1">
+      <c r="A22" s="14">
         <v>99</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -7370,6 +7507,79 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>